--- a/biology/Zoologie/Heptathela_kimurai/Heptathela_kimurai.xlsx
+++ b/biology/Zoologie/Heptathela_kimurai/Heptathela_kimurai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heptathela kimurai est une espèce d'araignées mésothèles de la famille des Heptathelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heptathela kimurai est une espèce d'araignées mésothèles de la famille des Heptathelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Kyūshū au Japon[1]. Elle se rencontre dans la préfecture de Kagoshima[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Kyūshū au Japon. Elle se rencontre dans la préfecture de Kagoshima.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles mesurent de 9,30 à 13,80 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent de 9,30 à 13,80 mm.
 </t>
         </is>
       </c>
@@ -573,12 +589,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Liphistius kimurai par Kishida en 1920. Elle placée dans le genre Heptathela par Kishida en 1923[3].
-Heptathela kimurai amamiensis[4] a été élevée au rang d'espèce par Ono et Nishikawa en 1989[5].
-Heptathela kimurai higoensis[4] a été élevée au rang d'espèce par Ono en 1998[6].
-Heptathela kimurai yanbaruensis[4] a été élevée au rang d'espèce par Ono en 2009[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Liphistius kimurai par Kishida en 1920. Elle placée dans le genre Heptathela par Kishida en 1923.
+Heptathela kimurai amamiensis a été élevée au rang d'espèce par Ono et Nishikawa en 1989.
+Heptathela kimurai higoensis a été élevée au rang d'espèce par Ono en 1998.
+Heptathela kimurai yanbaruensis a été élevée au rang d'espèce par Ono en 2009.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Arika Kimura (木村有香) (1900-1996) qui a découvert l'holotype en 1920.
 </t>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Kishida, 1920 : « Genteki no kumo Nihon ni sansu - Occurrence of a liphistiid spider in Japan. » Zoological Magazine, vol. 32, p. 360-363 (ja).</t>
         </is>
